--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao.xlsx
@@ -760,27 +760,26 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="53.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1023" min="14" style="1" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,11 +1761,11 @@
       </c>
       <c r="C23" s="2" t="n">
         <f aca="false">IF(H23="Incerto",MAX(G23,J23-(ABS(F23*J23))),J23)</f>
-        <v>3600</v>
+        <v>100000</v>
       </c>
       <c r="D23" s="2" t="n">
         <f aca="false">IF(H23="Incerto",MIN(G23,J23+(ABS(F23*J23))),J23)</f>
-        <v>3600</v>
+        <v>100000</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>68</v>
@@ -1776,18 +1775,17 @@
       </c>
       <c r="G23" s="1" t="n">
         <f aca="false">J23/2</f>
-        <v>1800</v>
+        <v>50000</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">J23*2</f>
-        <v>7200</v>
+        <v>200000</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="1" t="n">
-        <f aca="false">J10*2</f>
-        <v>3600</v>
+        <v>100000</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>10000000</v>
@@ -1992,11 +1990,11 @@
       </c>
       <c r="C28" s="2" t="n">
         <f aca="false">IF(I28="Incerto",MAX(G28,J28-(ABS(F28*J28))),J28)</f>
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">IF(I28="Incerto",MIN(H28,J28+(ABS(F28*J28))),J28)</f>
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>79</v>
@@ -2006,18 +2004,17 @@
       </c>
       <c r="G28" s="1" t="n">
         <f aca="false">J28/2</f>
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">J28*2</f>
-        <v>3.6</v>
+        <v>20</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="1" t="n">
-        <f aca="false">J10/1000</f>
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>100000</v>
@@ -2085,11 +2082,11 @@
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">IF(I30="Incerto",MAX(G30,J30-(ABS(F30*J30))),J30)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="n">
         <f aca="false">IF(I30="Incerto",MIN(H30,J30+(ABS(F30*J30))),J30)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0"/>
       <c r="F30" s="2" t="n">
@@ -2105,7 +2102,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>1</v>
@@ -2913,35 +2910,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="0"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="2" t="n">
         <f aca="false">IF(I51="Incerto",MAX(G51,J51-(ABS(F51*J51))),J51)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D51" s="2" t="n">
         <f aca="false">IF(I51="Incerto",MIN(H51,J51+(ABS(F51*J51))),J51)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="G51" s="1" t="n">
         <f aca="false">J51/4</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">J51*4</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K51" s="1" t="n">
         <v>1000</v>
@@ -2954,28 +2951,28 @@
       <c r="B52" s="0"/>
       <c r="C52" s="2" t="n">
         <f aca="false">IF(I52="Incerto",MAX(G52,J52-(ABS(F52*J52))),J52)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D52" s="2" t="n">
         <f aca="false">IF(I52="Incerto",MIN(H52,J52+(ABS(F52*J52))),J52)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="G52" s="1" t="n">
         <f aca="false">J52/4</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">J52*4</f>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>100</v>
@@ -2988,28 +2985,28 @@
       <c r="B53" s="0"/>
       <c r="C53" s="2" t="n">
         <f aca="false">IF(I53="Incerto",MAX(G53,J53-(ABS(F53*J53))),J53)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D53" s="2" t="n">
         <f aca="false">IF(I53="Incerto",MIN(H53,J53+(ABS(F53*J53))),J53)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="G53" s="1" t="n">
         <f aca="false">J53/4</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">J53*4</f>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>100</v>
@@ -3123,6 +3120,7 @@
       <c r="A57" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="B57" s="0"/>
       <c r="C57" s="1" t="n">
         <v>0.5</v>
       </c>
@@ -3141,8 +3139,9 @@
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="B58" s="0"/>
       <c r="C58" s="1" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>0.4</v>
@@ -3152,13 +3151,14 @@
       </c>
       <c r="J58" s="1" t="n">
         <f aca="false">C58</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="B59" s="0"/>
       <c r="C59" s="1" t="n">
         <v>2500</v>
       </c>
@@ -3177,6 +3177,7 @@
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B60" s="0"/>
       <c r="C60" s="1" t="n">
         <v>1831</v>
       </c>
@@ -3239,11 +3240,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,7 +3300,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,11 +3349,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="170">
   <si>
     <t>Variavel</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>Replicação</t>
+  </si>
+  <si>
+    <t>Incerto</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1014,7 @@
     <col min="3" max="3" width="12.28515625" style="2"/>
     <col min="4" max="4" width="13.42578125" style="2"/>
     <col min="5" max="5" width="17.85546875" style="1"/>
-    <col min="6" max="6" width="4.7109375" style="2"/>
+    <col min="6" max="6" width="6.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1"/>
     <col min="8" max="8" width="10.7109375" style="1"/>
     <col min="9" max="9" width="7" style="1"/>
@@ -1559,17 +1562,17 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
         <f>J13/10</f>
@@ -1580,7 +1583,7 @@
         <v>500000</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="J13" s="5">
         <v>50000</v>
@@ -1592,7 +1595,7 @@
       <c r="M13"/>
       <c r="N13" s="1" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/models/dissertation-model/modelo-R/calibracao/params_calibracao.xlsx
+++ b/models/dissertation-model/modelo-R/calibracao/params_calibracao.xlsx
@@ -1003,8 +1003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1023,8 @@
     <col min="11" max="11" width="8" style="1"/>
     <col min="12" max="12" width="10.140625" style="1"/>
     <col min="13" max="13" width="9.7109375" style="1"/>
-    <col min="14" max="1023" width="7" style="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="1023" width="7" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2677,11 +2679,11 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>20</v>
@@ -2699,7 +2701,7 @@
         <v>17</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -3296,28 +3298,28 @@
       <c r="B55"/>
       <c r="C55" s="2">
         <f t="shared" si="3"/>
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="4"/>
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="F55" s="2">
         <v>0.5</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="6"/>
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="7"/>
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J55" s="1">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="K55" s="1">
         <v>1000000</v>
@@ -3331,11 +3333,11 @@
         <v>130</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C56:C62" si="8">IF(I56="Incerto",MAX(G56,J56-(ABS(F56*J56))),J56)</f>
         <v>0.5</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D56:D62" si="9">IF(I56="Incerto",MIN(H56,J56+(ABS(F56*J56))),J56)</f>
         <v>0.5</v>
       </c>
       <c r="F56" s="2">
@@ -3377,6 +3379,9 @@
         <f>C57</f>
         <v>0.5</v>
       </c>
+      <c r="K57" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -3396,6 +3401,10 @@
         <f>C58</f>
         <v>0.4</v>
       </c>
+      <c r="K58" s="1">
+        <f>D58</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3415,6 +3424,10 @@
         <f>C59</f>
         <v>2500</v>
       </c>
+      <c r="K59" s="1">
+        <f>D59</f>
+        <v>2500</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -3434,16 +3447,29 @@
         <f>C60</f>
         <v>1831</v>
       </c>
+      <c r="K60" s="1">
+        <f>D60</f>
+        <v>1831</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B61"/>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3452,10 +3478,19 @@
         <v>136</v>
       </c>
       <c r="B62"/>
+      <c r="C62" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.3</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J62" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K62" s="1">
         <v>0.3</v>
       </c>
     </row>
